--- a/三目並べ/振り返り/振り返りレビュー結果記録.xlsx
+++ b/三目並べ/振り返り/振り返りレビュー結果記録.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23003"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A99560-78EB-4D31-8CF7-F91AF2781C4E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{46A99560-78EB-4D31-8CF7-F91AF2781C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A4B345E-B5EE-4682-842F-53131AC1DAAB}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="510" windowWidth="17460" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1395" yWindow="510" windowWidth="17460" windowHeight="10545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -13,12 +13,14 @@
     <sheet name="概要サンプル" sheetId="4" r:id="rId3"/>
     <sheet name="レビュー結果サンプル" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="55">
   <si>
     <t>会議名</t>
     <rPh sb="0" eb="2">
@@ -52,6 +54,28 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>反復1 第9回レビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2020/06/05
+14:55-15:05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オンライン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>出席者</t>
     <rPh sb="0" eb="3">
       <t>シュッセキシャ</t>
@@ -59,6 +83,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>蜂須賀（敬称略）、内山、金光、馬場、国吉、出山、森</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リャク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウチヤマ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カネミツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ババ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>クニヨシ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>デヤマ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レビューア</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -70,6 +125,26 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>蜂須賀（敬称略）</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイショウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>リャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内山</t>
+    <rPh sb="0" eb="2">
+      <t>ウチヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>工程</t>
     <rPh sb="0" eb="2">
       <t>コウテイ</t>
@@ -87,6 +162,25 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>反復終了</t>
+  </si>
+  <si>
+    <t>反復１を終えての振り返りレビュー</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>レビュー対象</t>
     <rPh sb="4" eb="6">
       <t>タイショウ</t>
@@ -111,6 +205,24 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>KPT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内山、金光、馬場、国吉、出山、森</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開発体験シート</t>
+    <rPh sb="0" eb="2">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>総指摘件数</t>
     <rPh sb="0" eb="1">
       <t>ソウ</t>
@@ -183,6 +295,70 @@
       <t>キゲン</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>その他</t>
+  </si>
+  <si>
+    <t>keepを継続する</t>
+    <rPh sb="5" eb="7">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keepの「意見を出す、分担する」を分担する</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>指摘</t>
+  </si>
+  <si>
+    <t>反復2,3に向け、ガントチャートを練り直す</t>
+    <rPh sb="0" eb="2">
+      <t>ハンプク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復１を踏まえて工程数を考える</t>
+  </si>
+  <si>
+    <t>個人で行う部分を増やすようにする(〇から●へ)</t>
+    <rPh sb="0" eb="2">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反復１であまり実践できなかったところを積極的に行う。</t>
   </si>
   <si>
     <t>反復1 第2回レビュー</t>
@@ -263,9 +439,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>指摘</t>
-  </si>
-  <si>
     <t>プロセス「2.2発注する」がデータ「発注商品」を加工していない</t>
   </si>
   <si>
@@ -277,165 +450,6 @@
   </si>
   <si>
     <t>プロセス「2.2発注する」の粒度を見直す</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復1 第9回レビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2020/06/05
-14:55-15:05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オンライン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蜂須賀（敬称略）、内山、金光、馬場、国吉、出山、森</t>
-    <rPh sb="0" eb="3">
-      <t>ハチスカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リャク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ウチヤマ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カネミツ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ババ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>クニヨシ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>デヤマ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>モリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蜂須賀（敬称略）</t>
-    <rPh sb="0" eb="3">
-      <t>ハチスカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケイショウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>リャク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内山</t>
-    <rPh sb="0" eb="2">
-      <t>ウチヤマ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>反復終了</t>
-  </si>
-  <si>
-    <t>反復１を終えての振り返りレビュー</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>keepを継続する</t>
-    <rPh sb="5" eb="7">
-      <t>ケイゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>その他</t>
-  </si>
-  <si>
-    <t>反復2,3に向け、ガントチャートを練り直す</t>
-    <rPh sb="0" eb="2">
-      <t>ハンプク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ネ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ナオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>個人で行う部分を増やすようにする(〇から●へ)</t>
-    <rPh sb="0" eb="2">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ブブン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>蜂須賀</t>
-    <rPh sb="0" eb="3">
-      <t>ハチスカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KPT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発体験シート</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>タイケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>内山、金光、馬場、国吉、出山、森</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -443,7 +457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -822,50 +836,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,7 +1007,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1316,11 +1330,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="19.375" customWidth="1"/>
@@ -1328,11 +1342,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1340,161 +1354,161 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D10" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D11" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="13"/>
       <c r="D12" s="14"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:4">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:4">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:4">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:4">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -1503,6 +1517,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:D3"/>
@@ -1513,17 +1538,6 @@
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -1543,101 +1557,113 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="9">
+        <v>43987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1646,7 +1672,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1655,7 +1681,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1664,7 +1690,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1673,7 +1699,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1682,7 +1708,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1691,7 +1717,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1700,7 +1726,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1709,7 +1735,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1718,7 +1744,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1727,7 +1753,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1736,7 +1762,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1745,7 +1771,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1754,7 +1780,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1763,7 +1789,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1772,7 +1798,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1781,7 +1807,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1790,7 +1816,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1799,7 +1825,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1831,7 +1857,7 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
@@ -1839,11 +1865,11 @@
     <col min="4" max="4" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
@@ -1851,168 +1877,168 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="31"/>
+    <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A2" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="22"/>
       <c r="C2" s="7" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="G2" s="12"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
-    </row>
-    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="31"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
+      <c r="A3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="25"/>
+    </row>
+    <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1">
+      <c r="A6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="22"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
-    </row>
-    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
+    </row>
+    <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1">
       <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27"/>
+        <v>46</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="31"/>
       <c r="C9" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="22"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="30"/>
       <c r="C10" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D10" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="22"/>
+    <row r="11" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="30"/>
       <c r="C11" s="13" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="D11" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="22"/>
+    <row r="12" spans="1:7" ht="13.5" customHeight="1">
+      <c r="A12" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="30"/>
       <c r="C12" s="13" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+    <row r="14" spans="1:7">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="13"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="13"/>
       <c r="D15" s="14"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+    <row r="16" spans="1:7">
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="13"/>
       <c r="D16" s="14"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+    <row r="17" spans="1:4">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="13"/>
       <c r="D17" s="14"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+    <row r="19" spans="1:4" ht="14.25" thickBot="1">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="14.25" thickBot="1">
       <c r="C20" s="15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D20" s="16">
         <f>IF(SUM(D10:D19)=0,"",SUM(D10:D19))</f>
@@ -2021,6 +2047,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A13:B13"/>
@@ -2030,18 +2068,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
@@ -2065,7 +2091,7 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
@@ -2075,53 +2101,53 @@
     <col min="6" max="6" width="53.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="59.25" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G2" s="9">
         <v>40686</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2130,7 +2156,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2139,7 +2165,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2148,7 +2174,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2157,7 +2183,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2166,7 +2192,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2175,7 +2201,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2184,7 +2210,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2193,7 +2219,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2202,7 +2228,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2211,7 +2237,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2220,7 +2246,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2229,7 +2255,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2238,7 +2264,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2247,7 +2273,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2256,7 +2282,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2265,7 +2291,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2274,7 +2300,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2283,7 +2309,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2292,7 +2318,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2301,7 +2327,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2326,6 +2352,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2509,12 +2541,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2525,36 +2551,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94CEECAD-71A6-41DD-8A07-4B3A9940E3CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01D29276-C38C-4646-B92B-8C8DCC907D95}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E07F5ABB-324D-4BA7-94D4-FD7D7F4B2F88}"/>
 </file>